--- a/data/file2.xlsx
+++ b/data/file2.xlsx
@@ -11,11 +11,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>商品</t>
   </si>
   <si>
+    <t>电商平台</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -34,9 +37,15 @@
     <t>采购时间</t>
   </si>
   <si>
+    <t>URL</t>
+  </si>
+  <si>
     <t xml:space="preserve">海尔电视机	海尔	H40E12	40吋 分辨率1920*1080 16:9 带USB接口	黑色 </t>
   </si>
   <si>
+    <t>文一朝阳</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -49,7 +58,19 @@
     <t>2016-11-22</t>
   </si>
   <si>
+    <t>http://112.74.98.194/commodities/15367?p_id=16150</t>
+  </si>
+  <si>
     <t>戴尔OptiPlex 7040MT -SD00996 i7-6700/4G/1TB/DVDRW/2G独显 不带系统</t>
+  </si>
+  <si>
+    <t>苏宁易购</t>
+  </si>
+  <si>
+    <t>¥6,870.00</t>
+  </si>
+  <si>
+    <t>http://112.74.98.194/commodities/24285?p_id=25617</t>
   </si>
 </sst>
 </file>
@@ -446,18 +467,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="100" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,33 +502,54 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="20" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="20" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
